--- a/biology/Histoire de la zoologie et de la botanique/Charles_Henry_Gilbert/Charles_Henry_Gilbert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Henry_Gilbert/Charles_Henry_Gilbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Henry Gilbert est un ichtyologiste américain, né le 5 décembre 1859 à Rockford, Illinois et mort le 20 avril 1928.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Edward Gilbert et de Sarah née Bean. Il obtient son Bachelor of Sciences à l’université Butler en 1879, son Master of Sciences à l’université de l'Indiana en 1882, enfin son Ph. D. en 1883. Il suit notamment les cours du grand ichtyologiste américain David Starr Jordan (1851-1931). Il se marie avec Julia R. Hughes le 7 août 1883.
 Gilbert travaille comme assistant à l’université de l’Indiana de 1880 à 1884 avant d’y enseigner la zoologie de 1889 à 1891. De 1884 à 1889, il enseigne l’histoire naturelle à l’université de Cincinnati. Il devient professeur de zoologie à l’université Stanford en 1891, fonction qu’il conserve jusqu’à sa retraite.
